--- a/ParkYoungWoong/second_clustering(차원축소).xlsx
+++ b/ParkYoungWoong/second_clustering(차원축소).xlsx
@@ -28,64 +28,64 @@
     <t>top_15_topics</t>
   </si>
   <si>
-    <t>['labuladong/fucking-algorithm', 'MisterBooo/LeetCodeAnimation', 'caddyserver/caddy', 'zenorocha/clipboard.js', 'IanLunn/Hover', 'Modernizr/Modernizr', 'nylas/nylas-mail', 'scwang90/SmartRefreshLayout', 'poteto/hiring-without-whiteboards', 'hashicorp/vagrant', 'getredash/redash', 'mysqljs/mysql', 'rough-stuff/rough']</t>
-  </si>
-  <si>
-    <t>['twbs/bootstrap', 'nodejs/node', 'jaywcjlove/awesome-mac', 'cheeriojs/cheerio', 'sentsin/layui', 'ramda/ramda', 'labstack/echo', 'keon/algorithms', 'AllThingsSmitty/css-protips', 'academic/awesome-datascience', 'google/flexbox-layout', 'LingCoder/OnJava8']</t>
-  </si>
-  <si>
-    <t>['vinta/awesome-python', 'mrdoob/three.js', 'atom/atom', 'h5bp/Front-end-Developer-Interview-Questions', 'tailwindlabs/tailwindcss', 'yangshun/front-end-interview-handbook', 'go-gitea/gitea', 'metabase/metabase', 'square/leakcanary', 'nostalgic-css/NES.css', 'BoostIO/Boostnote', 'eggjs/egg']</t>
-  </si>
-  <si>
-    <t>['animate-css/animate.css', 'kdn251/interviews', 'tiimgreen/github-cheat-sheet', 'akullpp/awesome-java', 'donnemartin/interactive-coding-challenges', 'lukasz-madon/awesome-remote-job', 'haizlin/fe-interview', 'oracle/graal']</t>
-  </si>
-  <si>
-    <t>['thedaviddias/Front-End-Checklist', 'psf/requests', 'hashicorp/vault', 'statsd/statsd', 'charlax/professional-programming']</t>
-  </si>
-  <si>
-    <t>['pallets/flask', 'papers-we-love/papers-we-love', 'azl397985856/leetcode', 'discourse/discourse', 'dypsilon/frontend-dev-bookmarks', 'emberjs/ember.js', 'marktext/marktext', 'numpy/numpy', 'nikitavoloboev/my-mac-os']</t>
-  </si>
-  <si>
-    <t>['avelino/awesome-go', 'expressjs/express', 'scikit-learn/scikit-learn', 'prakhar1989/awesome-courses', 'beego/beego']</t>
-  </si>
-  <si>
-    <t>['521xueweihan/HelloGitHub', 'PhilJay/MPAndroidChart', 'crossoverJie/JCSprout', 'google/iosched', 'sirupsen/logrus', 'kdeldycke/awesome-falsehood']</t>
-  </si>
-  <si>
-    <t>['TheAlgorithms/Java', 'Advanced-Frontend/Daily-Interview-Question', 'feathericons/feather', 'fastify/fastify', 'Dreamacro/clash', 'yewstack/yew', 'mybatis/mybatis-3', 'facert/awesome-spider', 'Kotlin/anko']</t>
-  </si>
-  <si>
-    <t>['traefik/traefik', 'pandas-dev/pandas', 'pure-css/pure', 'heartcombo/devise', 'postcss/autoprefixer', 'ehang-io/nps', 'PKUanonym/REKCARC-TSC-UHT', 'nektos/act']</t>
-  </si>
-  <si>
-    <t>[('javascript', 6), ('leetcode', 5), ('sql', 4), ('http', 3), ('css', 3), ('hacktoberfest', 3), ('data', 2), ('interview', 2), ('programming', 2), ('android', 2), ('pull-request', 2), ('svg', 2), ('computer-science', 1), ('algorithm', 1), ('kmp', 1)]</t>
-  </si>
-  <si>
-    <t>[('javascript', 6), ('css', 6), ('awesome', 6), ('html', 5), ('data', 4), ('macos', 3), ('web', 3), ('nodejs', 2), ('http', 2), ('algorithm', 2), ('android', 2), ('sass', 1), ('bootstrap', 1), ('scss', 1), ('windows', 1)]</t>
-  </si>
-  <si>
-    <t>[('css', 8), ('web', 6), ('javascript', 5), ('python', 4), ('html', 4), ('git', 4), ('frontend', 3), ('interview', 3), ('sql', 3), ('data', 3), ('koa', 3), ('electron', 2), ('windows', 2), ('macos', 2), ('linux', 2)]</t>
-  </si>
-  <si>
-    <t>[('interview', 16), ('awesome', 6), ('algorithm', 5), ('leetcode', 4), ('css', 3), ('javascript', 3), ('java', 2), ('git', 2), ('list', 2), ('python', 2), ('programming', 2), ('nodejs', 2), ('frontend', 2), ('style', 1), ('animation', 1)]</t>
-  </si>
-  <si>
-    <t>[('frontend', 3), ('javascript', 2), ('python', 2), ('humans', 2), ('programming', 2), ('css', 1), ('html', 1), ('lists', 1), ('checklist', 1), ('web', 1), ('reference', 1), ('resources', 1), ('guidelines', 1), ('http', 1), ('client', 1)]</t>
-  </si>
-  <si>
-    <t>[('awesome', 4), ('javascript', 4), ('python', 3), ('computer-science', 2), ('ember', 2), ('macos', 2), ('flask', 1), ('web', 1), ('wsgi', 1), ('jinja', 1), ('werkzeug', 1), ('pallets', 1), ('meetup', 1), ('programming', 1), ('theory', 1)]</t>
-  </si>
-  <si>
-    <t>[('awesome', 4), ('go', 2), ('data', 2), ('golang', 1), ('golang-library', 1), ('hacktoberfest', 1), ('nodejs', 1), ('javascript', 1), ('express', 1), ('server', 1), ('python', 1), ('machinelearning', 1), ('statistics', 1), ('computer-science', 1), ('courses', 1)]</t>
-  </si>
-  <si>
-    <t>[('awesome', 3), ('android', 3), ('git', 2), ('java', 2), ('programming', 2), ('python', 1), ('chart', 1), ('graph', 1), ('algorithm', 1), ('jvm', 1), ('netty', 1), ('basic-java', 1), ('kotlin', 1), ('conference', 1), ('architecture', 1)]</t>
-  </si>
-  <si>
-    <t>[('algorithm', 4), ('web', 4), ('interview', 3), ('java', 2), ('sort', 2), ('javascript', 2), ('search', 1), ('wiki', 1), ('reference', 1), ('implementation', 1), ('hacktoberfest', 1), ('react', 1), ('css', 1), ('vue', 1), ('svg', 1)]</t>
-  </si>
-  <si>
-    <t>[('go', 2), ('golang', 2), ('css', 2), ('http', 2), ('letsencrypt', 1), ('docker', 1), ('kubernetes', 1), ('microservice', 1), ('consul', 1), ('loading', 1), ('zookeeper', 1), ('marathon', 1), ('etcd', 1), ('mesos', 1), ('reverse-proxy', 1)]</t>
+    <t>['vinta/awesome-python', 'avelino/awesome-go', 'discourse/discourse', 'apache/spark', 'postcss/postcss', 'gto76/python-cheatsheet', 'mitmproxy/mitmproxy', 'poteto/hiring-without-whiteboards', 'gitlabhq/gitlabhq', 'alebcay/awesome-shell', 'AllThingsSmitty/css-protips', 'less/less.js', 'rough-stuff/rough']</t>
+  </si>
+  <si>
+    <t>['twbs/bootstrap', 'axios/axios', 'psf/requests', 'Advanced-Frontend/Daily-Interview-Question', 'typicode/husky', 'alibaba/easyexcel', 'tornadoweb/tornado', 'marktext/marktext', 'haizlin/fe-interview', 'google/flexbox-layout', 'nocodb/nocodb', 'nektos/act']</t>
+  </si>
+  <si>
+    <t>['TheAlgorithms/Python', 'angular/angular', 'yangshun/tech-interview-handbook', 'nvm-sh/nvm', '521xueweihan/HelloGitHub', 'pandas-dev/pandas', 'beego/beego', 'square/leakcanary', 'go-gitea/gitea', 'qianguyihao/Web', 'academic/awesome-datascience', 'coreybutler/nvm-windows']</t>
+  </si>
+  <si>
+    <t>['mrdoob/three.js', 'expressjs/express', 'sahat/hackathon-starter', 'joshbuchea/HEAD', 'scwang90/SmartRefreshLayout', 'google/iosched', 'davideuler/architecture.of.internet-product', 'oracle/graal']</t>
+  </si>
+  <si>
+    <t>['atom/atom', 'tailwindlabs/tailwindcss', 'cockroachdb/cockroach', 'statsd/statsd', 'charlax/professional-programming']</t>
+  </si>
+  <si>
+    <t>['awesome-selfhosted/awesome-selfhosted', 'rails/rails', 'azl397985856/leetcode', 'GitSquared/edex-ui', 'airbnb/lottie-android', 'pure-css/pure', 'goldfire/howler.js', 'PKUanonym/REKCARC-TSC-UHT', 'nostalgic-css/NES.css']</t>
+  </si>
+  <si>
+    <t>['animate-css/animate.css', 'chartjs/Chart.js', 'fatedier/frp', 'gogs/gogs', 'crossoverJie/JCSprout']</t>
+  </si>
+  <si>
+    <t>['scikit-learn/scikit-learn', 'hexojs/hexo', 'metabase/metabase', 'labstack/echo', 'benweet/stackedit', 'kdeldycke/awesome-falsehood']</t>
+  </si>
+  <si>
+    <t>['TheAlgorithms/Java', 'donnemartin/interactive-coding-challenges', 'fastify/fastify', 'huihut/interview', 'Popmotion/popmotion', 'mysqljs/mysql', 'mybatis/mybatis-3', 'facert/awesome-spider', 'Kotlin/anko']</t>
+  </si>
+  <si>
+    <t>['caddyserver/caddy', 'akullpp/awesome-java', 'dbeaver/dbeaver', 'Polymer/polymer', 'getredash/redash', 'numpy/numpy', 'eggjs/egg', 'svg/svgo']</t>
+  </si>
+  <si>
+    <t>[('python', 8), ('awesome', 7), ('css', 5), ('ruby', 2), ('rails', 2), ('sql', 2), ('http', 2), ('svg', 2), ('collections', 1), ('go', 1), ('golang', 1), ('golang-library', 1), ('hacktoberfest', 1), ('javascript', 1), ('ember', 1)]</t>
+  </si>
+  <si>
+    <t>[('javascript', 5), ('interview', 5), ('css', 4), ('sql', 4), ('nodejs', 3), ('python', 3), ('vue', 3), ('html', 2), ('http', 2), ('humans', 2), ('react', 2), ('git', 2), ('frontend', 2), ('android', 2), ('rest', 2)]</t>
+  </si>
+  <si>
+    <t>[('git', 6), ('algorithm', 5), ('interview', 5), ('nodejs', 5), ('version', 4), ('data', 4), ('python', 3), ('hacktoberfest', 3), ('web', 3), ('go', 3), ('sort', 2), ('javascript', 2), ('nvm', 2), ('posix', 2), ('awesome', 2)]</t>
+  </si>
+  <si>
+    <t>[('web', 6), ('javascript', 3), ('html', 3), ('android', 3), ('nodejs', 2), ('pull-request', 2), ('architecture', 2), ('svg', 1), ('canvas', 1), ('augmented-reality', 1), ('virtual-reality', 1), ('3d', 1), ('express', 1), ('server', 1), ('boilerplate', 1)]</t>
+  </si>
+  <si>
+    <t>[('css', 3), ('javascript', 2), ('programming', 2), ('electron', 1), ('atom', 1), ('editor', 1), ('windows', 1), ('macos', 1), ('linux', 1), ('postcss', 1), ('responsive', 1), ('util', 1), ('tailwindcss', 1), ('go', 1), ('sql', 1)]</t>
+  </si>
+  <si>
+    <t>[('html', 3), ('css', 3), ('awesome', 2), ('activejob', 2), ('javascript', 2), ('computer-science', 2), ('audio', 2), ('cloud', 1), ('privacy', 1), ('selfhosted', 1), ('hosting', 1), ('self-hosted', 1), ('ruby', 1), ('rails', 1), ('framework', 1)]</t>
+  </si>
+  <si>
+    <t>[('css', 2), ('html', 2), ('go', 2), ('style', 1), ('animation', 1), ('javascript', 1), ('chart', 1), ('canvas', 1), ('graph', 1), ('hacktoberfest', 1), ('tunnel', 1), ('proxy', 1), ('firewall', 1), ('nat', 1), ('http', 1)]</t>
+  </si>
+  <si>
+    <t>[('data', 5), ('sql', 3), ('web', 3), ('javascript', 2), ('vision', 2), ('business', 2), ('http', 2), ('git', 2), ('awesome', 2), ('python', 1), ('machinelearning', 1), ('statistics', 1), ('nodejs', 1), ('static', 1), ('hexo', 1)]</t>
+  </si>
+  <si>
+    <t>[('interview', 10), ('algorithm', 6), ('data', 3), ('java', 2), ('sort', 2), ('python', 2), ('programming', 2), ('nodejs', 2), ('javascript', 2), ('sql', 2), ('search', 1), ('wiki', 1), ('reference', 1), ('implementation', 1), ('hacktoberfest', 1)]</t>
+  </si>
+  <si>
+    <t>[('sql', 7), ('http', 3), ('nodejs', 3), ('koa', 3), ('web', 2), ('awesome', 2), ('data', 2), ('javascript', 2), ('python', 2), ('svg', 2), ('go', 1), ('tls', 1), ('security', 1), ('privacy', 1), ('reverse-proxy', 1)]</t>
   </si>
 </sst>
 </file>
